--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.00921384564797</v>
+        <v>5.507882</v>
       </c>
       <c r="H2">
-        <v>3.00921384564797</v>
+        <v>16.523646</v>
       </c>
       <c r="I2">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="J2">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>7.67332078008265</v>
+        <v>0.1378523333333333</v>
       </c>
       <c r="N2">
-        <v>7.67332078008265</v>
+        <v>0.413557</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01719056794796269</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01719056794796269</v>
       </c>
       <c r="Q2">
-        <v>23.09066313352299</v>
+        <v>0.7592743854246665</v>
       </c>
       <c r="R2">
-        <v>23.09066313352299</v>
+        <v>6.833469468822</v>
       </c>
       <c r="S2">
-        <v>0.01983093299603421</v>
+        <v>0.0006049130849774687</v>
       </c>
       <c r="T2">
-        <v>0.01983093299603421</v>
+        <v>0.0006049130849774687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>147.907014682329</v>
+        <v>5.507882</v>
       </c>
       <c r="H3">
-        <v>147.907014682329</v>
+        <v>16.523646</v>
       </c>
       <c r="I3">
-        <v>0.9747177330221033</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="J3">
-        <v>0.9747177330221033</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.67332078008265</v>
+        <v>7.692787333333334</v>
       </c>
       <c r="N3">
-        <v>7.67332078008265</v>
+        <v>23.078362</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9593118967607375</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9593118967607375</v>
       </c>
       <c r="Q3">
-        <v>1134.937969281905</v>
+        <v>42.37096488309466</v>
       </c>
       <c r="R3">
-        <v>1134.937969281905</v>
+        <v>381.338683947852</v>
       </c>
       <c r="S3">
-        <v>0.9747177330221033</v>
+        <v>0.03375690208035842</v>
       </c>
       <c r="T3">
-        <v>0.9747177330221033</v>
+        <v>0.03375690208035842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,427 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5.507882</v>
+      </c>
+      <c r="H4">
+        <v>16.523646</v>
+      </c>
+      <c r="I4">
+        <v>0.03518866199235487</v>
+      </c>
+      <c r="J4">
+        <v>0.03518866199235487</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.1884283333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.565285</v>
+      </c>
+      <c r="O4">
+        <v>0.02349753529129985</v>
+      </c>
+      <c r="P4">
+        <v>0.02349753529129985</v>
+      </c>
+      <c r="Q4">
+        <v>1.037841025456667</v>
+      </c>
+      <c r="R4">
+        <v>9.340569229110001</v>
+      </c>
+      <c r="S4">
+        <v>0.0008268468270189803</v>
+      </c>
+      <c r="T4">
+        <v>0.0008268468270189803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.827204130978241</v>
-      </c>
-      <c r="H4">
-        <v>0.827204130978241</v>
-      </c>
-      <c r="I4">
-        <v>0.005451333981862596</v>
-      </c>
-      <c r="J4">
-        <v>0.005451333981862596</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>7.67332078008265</v>
-      </c>
-      <c r="N4">
-        <v>7.67332078008265</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>6.347402647605547</v>
-      </c>
-      <c r="R4">
-        <v>6.347402647605547</v>
-      </c>
-      <c r="S4">
-        <v>0.005451333981862596</v>
-      </c>
-      <c r="T4">
-        <v>0.005451333981862596</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>149.9875183333334</v>
+      </c>
+      <c r="H5">
+        <v>449.9625550000001</v>
+      </c>
+      <c r="I5">
+        <v>0.9582376829612175</v>
+      </c>
+      <c r="J5">
+        <v>0.9582376829612176</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1378523333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.413557</v>
+      </c>
+      <c r="O5">
+        <v>0.01719056794796269</v>
+      </c>
+      <c r="P5">
+        <v>0.01719056794796269</v>
+      </c>
+      <c r="Q5">
+        <v>20.67612937312611</v>
+      </c>
+      <c r="R5">
+        <v>186.085164358135</v>
+      </c>
+      <c r="S5">
+        <v>0.01647264999924314</v>
+      </c>
+      <c r="T5">
+        <v>0.01647264999924315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>149.9875183333334</v>
+      </c>
+      <c r="H6">
+        <v>449.9625550000001</v>
+      </c>
+      <c r="I6">
+        <v>0.9582376829612175</v>
+      </c>
+      <c r="J6">
+        <v>0.9582376829612176</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>7.692787333333334</v>
+      </c>
+      <c r="N6">
+        <v>23.078362</v>
+      </c>
+      <c r="O6">
+        <v>0.9593118967607375</v>
+      </c>
+      <c r="P6">
+        <v>0.9593118967607375</v>
+      </c>
+      <c r="Q6">
+        <v>1153.822081192768</v>
+      </c>
+      <c r="R6">
+        <v>10384.39873073491</v>
+      </c>
+      <c r="S6">
+        <v>0.9192488091891398</v>
+      </c>
+      <c r="T6">
+        <v>0.9192488091891399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>149.9875183333334</v>
+      </c>
+      <c r="H7">
+        <v>449.9625550000001</v>
+      </c>
+      <c r="I7">
+        <v>0.9582376829612175</v>
+      </c>
+      <c r="J7">
+        <v>0.9582376829612176</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1884283333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.565285</v>
+      </c>
+      <c r="O7">
+        <v>0.02349753529129985</v>
+      </c>
+      <c r="P7">
+        <v>0.02349753529129985</v>
+      </c>
+      <c r="Q7">
+        <v>28.26189810035278</v>
+      </c>
+      <c r="R7">
+        <v>254.357082903175</v>
+      </c>
+      <c r="S7">
+        <v>0.02251622377283461</v>
+      </c>
+      <c r="T7">
+        <v>0.02251622377283461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.028937</v>
+      </c>
+      <c r="H8">
+        <v>3.086811</v>
+      </c>
+      <c r="I8">
+        <v>0.006573655046427582</v>
+      </c>
+      <c r="J8">
+        <v>0.006573655046427582</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1378523333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.413557</v>
+      </c>
+      <c r="O8">
+        <v>0.01719056794796269</v>
+      </c>
+      <c r="P8">
+        <v>0.01719056794796269</v>
+      </c>
+      <c r="Q8">
+        <v>0.141841366303</v>
+      </c>
+      <c r="R8">
+        <v>1.276572296727</v>
+      </c>
+      <c r="S8">
+        <v>0.0001130048637420812</v>
+      </c>
+      <c r="T8">
+        <v>0.0001130048637420812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.028937</v>
+      </c>
+      <c r="H9">
+        <v>3.086811</v>
+      </c>
+      <c r="I9">
+        <v>0.006573655046427582</v>
+      </c>
+      <c r="J9">
+        <v>0.006573655046427582</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.692787333333334</v>
+      </c>
+      <c r="N9">
+        <v>23.078362</v>
+      </c>
+      <c r="O9">
+        <v>0.9593118967607375</v>
+      </c>
+      <c r="P9">
+        <v>0.9593118967607375</v>
+      </c>
+      <c r="Q9">
+        <v>7.915393520398001</v>
+      </c>
+      <c r="R9">
+        <v>71.238541683582</v>
+      </c>
+      <c r="S9">
+        <v>0.006306185491239237</v>
+      </c>
+      <c r="T9">
+        <v>0.006306185491239237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.028937</v>
+      </c>
+      <c r="H10">
+        <v>3.086811</v>
+      </c>
+      <c r="I10">
+        <v>0.006573655046427582</v>
+      </c>
+      <c r="J10">
+        <v>0.006573655046427582</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1884283333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.565285</v>
+      </c>
+      <c r="O10">
+        <v>0.02349753529129985</v>
+      </c>
+      <c r="P10">
+        <v>0.02349753529129985</v>
+      </c>
+      <c r="Q10">
+        <v>0.193880884015</v>
+      </c>
+      <c r="R10">
+        <v>1.744927956135</v>
+      </c>
+      <c r="S10">
+        <v>0.0001544646914462635</v>
+      </c>
+      <c r="T10">
+        <v>0.0001544646914462635</v>
       </c>
     </row>
   </sheetData>
